--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5851,11 +5851,21 @@
       <c r="C208" t="n">
         <v>189457</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>86970000000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -5865,13 +5875,29 @@
         <v>6600</v>
       </c>
       <c r="C209" t="n">
-        <v>115923</v>
+        <v>116496</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6690</v>
+      </c>
+      <c r="C210" t="n">
+        <v>126747</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5884,7 +5910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11300,11 +11326,21 @@
       <c r="C208" t="n">
         <v>320203</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E208" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F208" t="n">
+        <v>137807224</v>
+      </c>
+      <c r="G208" t="n">
+        <v>28342505344</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11314,13 +11350,29 @@
         <v>331</v>
       </c>
       <c r="C209" t="n">
-        <v>471222</v>
+        <v>471246</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>328</v>
+      </c>
+      <c r="C210" t="n">
+        <v>327516</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11333,7 +11385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16749,11 +16801,21 @@
       <c r="C208" t="n">
         <v>380523</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>132435</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F208" t="n">
+        <v>218782620</v>
+      </c>
+      <c r="G208" t="n">
+        <v>27069822332</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.8100000023841858</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -16763,13 +16825,29 @@
         <v>1646</v>
       </c>
       <c r="C209" t="n">
-        <v>177824</v>
+        <v>178324</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C210" t="n">
+        <v>282554</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16782,7 +16860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22198,11 +22276,21 @@
       <c r="C208" t="n">
         <v>275356</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>132957</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F208" t="n">
+        <v>411501915</v>
+      </c>
+      <c r="G208" t="n">
+        <v>50487797215</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.8199999928474426</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -22212,13 +22300,29 @@
         <v>3030</v>
       </c>
       <c r="C209" t="n">
-        <v>107569</v>
+        <v>107572</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3060</v>
+      </c>
+      <c r="C210" t="n">
+        <v>108680</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22231,7 +22335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27647,11 +27751,21 @@
       <c r="C208" t="n">
         <v>80755</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F208" t="n">
+        <v>134749242</v>
+      </c>
+      <c r="G208" t="n">
+        <v>31383456993</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -27661,13 +27775,29 @@
         <v>1902</v>
       </c>
       <c r="C209" t="n">
-        <v>22793</v>
+        <v>22803</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C210" t="n">
+        <v>17035</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27680,7 +27810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33096,11 +33226,21 @@
       <c r="C208" t="n">
         <v>602503</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E208" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F208" t="n">
+        <v>153701883</v>
+      </c>
+      <c r="G208" t="n">
+        <v>41575476285</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -33110,13 +33250,29 @@
         <v>553</v>
       </c>
       <c r="C209" t="n">
-        <v>167149</v>
+        <v>183263</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>552</v>
+      </c>
+      <c r="C210" t="n">
+        <v>213415</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33129,7 +33285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38545,11 +38701,21 @@
       <c r="C208" t="n">
         <v>477639</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>387148</v>
+      </c>
+      <c r="E208" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F208" t="n">
+        <v>398762440</v>
+      </c>
+      <c r="G208" t="n">
+        <v>111646385470</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.3600000143051147</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -38559,7 +38725,7 @@
         <v>1031</v>
       </c>
       <c r="C209" t="n">
-        <v>423793</v>
+        <v>423810</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -38567,6 +38733,22 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C210" t="n">
+        <v>500186</v>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,11 +5877,21 @@
       <c r="C209" t="n">
         <v>116496</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>85800000000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -5891,13 +5901,29 @@
         <v>6690</v>
       </c>
       <c r="C210" t="n">
-        <v>126747</v>
+        <v>127244</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6720</v>
+      </c>
+      <c r="C211" t="n">
+        <v>100178</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5910,7 +5936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11352,11 +11378,21 @@
       <c r="C209" t="n">
         <v>471246</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E209" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F209" t="n">
+        <v>137392142</v>
+      </c>
+      <c r="G209" t="n">
+        <v>28257136352</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11366,13 +11402,29 @@
         <v>328</v>
       </c>
       <c r="C210" t="n">
-        <v>327516</v>
+        <v>327523</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>330</v>
+      </c>
+      <c r="C211" t="n">
+        <v>108510</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11385,7 +11437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16827,11 +16879,21 @@
       <c r="C209" t="n">
         <v>178324</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>132435</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F209" t="n">
+        <v>217988010</v>
+      </c>
+      <c r="G209" t="n">
+        <v>26971505786</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.8100000023841858</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -16841,13 +16903,29 @@
         <v>1734</v>
       </c>
       <c r="C210" t="n">
-        <v>282554</v>
+        <v>283470</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C211" t="n">
+        <v>227864</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16860,7 +16938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22302,11 +22380,21 @@
       <c r="C209" t="n">
         <v>107572</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>132452</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F209" t="n">
+        <v>401329560</v>
+      </c>
+      <c r="G209" t="n">
+        <v>49427471910</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.8100000023841858</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -22316,13 +22404,29 @@
         <v>3060</v>
       </c>
       <c r="C210" t="n">
-        <v>108680</v>
+        <v>109675</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3045</v>
+      </c>
+      <c r="C211" t="n">
+        <v>20720</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22335,7 +22439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27777,11 +27881,21 @@
       <c r="C209" t="n">
         <v>22803</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F209" t="n">
+        <v>134962116</v>
+      </c>
+      <c r="G209" t="n">
+        <v>31433035914</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -27798,6 +27912,22 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C211" t="n">
+        <v>29305</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27810,7 +27940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33252,11 +33382,21 @@
       <c r="C209" t="n">
         <v>183263</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E209" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F209" t="n">
+        <v>154821751</v>
+      </c>
+      <c r="G209" t="n">
+        <v>41878394145</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -33266,13 +33406,29 @@
         <v>552</v>
       </c>
       <c r="C210" t="n">
-        <v>213415</v>
+        <v>213428</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>554</v>
+      </c>
+      <c r="C211" t="n">
+        <v>144177</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33285,7 +33441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38727,11 +38883,21 @@
       <c r="C209" t="n">
         <v>423810</v>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="D209" t="n">
+        <v>392476</v>
+      </c>
+      <c r="E209" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F209" t="n">
+        <v>404642756</v>
+      </c>
+      <c r="G209" t="n">
+        <v>111754780019</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.3600000143051147</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -38741,7 +38907,7 @@
         <v>1020</v>
       </c>
       <c r="C210" t="n">
-        <v>500186</v>
+        <v>500253</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -38749,6 +38915,22 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C211" t="n">
+        <v>591665</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5903,11 +5903,21 @@
       <c r="C210" t="n">
         <v>127244</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>86970000000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -5917,13 +5927,159 @@
         <v>6720</v>
       </c>
       <c r="C211" t="n">
-        <v>100178</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>100518</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>87360000000</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6920</v>
+      </c>
+      <c r="C212" t="n">
+        <v>155088</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>89960000000</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6870</v>
+      </c>
+      <c r="C213" t="n">
+        <v>126008</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>89310000000</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C214" t="n">
+        <v>81266</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>88530000000</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6850</v>
+      </c>
+      <c r="C215" t="n">
+        <v>68261</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>89050000000</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6830</v>
+      </c>
+      <c r="C216" t="n">
+        <v>96324</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6900</v>
+      </c>
+      <c r="C217" t="n">
+        <v>76109</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5936,7 +6092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11404,11 +11560,21 @@
       <c r="C210" t="n">
         <v>327523</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E210" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F210" t="n">
+        <v>136146896</v>
+      </c>
+      <c r="G210" t="n">
+        <v>28001029376</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11418,13 +11584,159 @@
         <v>330</v>
       </c>
       <c r="C211" t="n">
-        <v>108510</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>108511</v>
+      </c>
+      <c r="D211" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E211" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F211" t="n">
+        <v>136977060</v>
+      </c>
+      <c r="G211" t="n">
+        <v>28171767360</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.4900000095367432</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>323</v>
+      </c>
+      <c r="C212" t="n">
+        <v>183180</v>
+      </c>
+      <c r="D212" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E212" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F212" t="n">
+        <v>134071486</v>
+      </c>
+      <c r="G212" t="n">
+        <v>27574184416</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.4900000095367432</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>323</v>
+      </c>
+      <c r="C213" t="n">
+        <v>175791</v>
+      </c>
+      <c r="D213" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E213" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F213" t="n">
+        <v>134071486</v>
+      </c>
+      <c r="G213" t="n">
+        <v>27574184416</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.4900000095367432</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>323</v>
+      </c>
+      <c r="C214" t="n">
+        <v>55110</v>
+      </c>
+      <c r="D214" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E214" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F214" t="n">
+        <v>134071486</v>
+      </c>
+      <c r="G214" t="n">
+        <v>27574184416</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.4900000095367432</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>328</v>
+      </c>
+      <c r="C215" t="n">
+        <v>157643</v>
+      </c>
+      <c r="D215" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E215" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F215" t="n">
+        <v>136146896</v>
+      </c>
+      <c r="G215" t="n">
+        <v>28001029376</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.4900000095367432</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>327</v>
+      </c>
+      <c r="C216" t="n">
+        <v>124381</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>321</v>
+      </c>
+      <c r="C217" t="n">
+        <v>199135</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11437,7 +11749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16905,11 +17217,21 @@
       <c r="C210" t="n">
         <v>283470</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>132435</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F210" t="n">
+        <v>229642290</v>
+      </c>
+      <c r="G210" t="n">
+        <v>28413481794</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.8100000023841858</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -16919,13 +17241,159 @@
         <v>1772</v>
       </c>
       <c r="C211" t="n">
-        <v>227864</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>228015</v>
+      </c>
+      <c r="D211" t="n">
+        <v>133568</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F211" t="n">
+        <v>236682496</v>
+      </c>
+      <c r="G211" t="n">
+        <v>29036153252</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C212" t="n">
+        <v>113421</v>
+      </c>
+      <c r="D212" t="n">
+        <v>133568</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F212" t="n">
+        <v>235213248</v>
+      </c>
+      <c r="G212" t="n">
+        <v>28855906251</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C213" t="n">
+        <v>577692</v>
+      </c>
+      <c r="D213" t="n">
+        <v>133568</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F213" t="n">
+        <v>264063936</v>
+      </c>
+      <c r="G213" t="n">
+        <v>32395301907</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C214" t="n">
+        <v>220101</v>
+      </c>
+      <c r="D214" t="n">
+        <v>133568</v>
+      </c>
+      <c r="E214" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F214" t="n">
+        <v>258988352</v>
+      </c>
+      <c r="G214" t="n">
+        <v>31772630449</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C215" t="n">
+        <v>81424</v>
+      </c>
+      <c r="D215" t="n">
+        <v>133568</v>
+      </c>
+      <c r="E215" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F215" t="n">
+        <v>261392576</v>
+      </c>
+      <c r="G215" t="n">
+        <v>32067580087</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C216" t="n">
+        <v>97393</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C217" t="n">
+        <v>100549</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16938,7 +17406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22406,11 +22874,21 @@
       <c r="C210" t="n">
         <v>109675</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>135640</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F210" t="n">
+        <v>415058400</v>
+      </c>
+      <c r="G210" t="n">
+        <v>49916852820</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.8299999833106995</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -22420,13 +22898,159 @@
         <v>3045</v>
       </c>
       <c r="C211" t="n">
-        <v>20720</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>21130</v>
+      </c>
+      <c r="D211" t="n">
+        <v>135336</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F211" t="n">
+        <v>412098120</v>
+      </c>
+      <c r="G211" t="n">
+        <v>49672162365</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3025</v>
+      </c>
+      <c r="C212" t="n">
+        <v>83103</v>
+      </c>
+      <c r="D212" t="n">
+        <v>137176</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F212" t="n">
+        <v>414957400</v>
+      </c>
+      <c r="G212" t="n">
+        <v>49345908425</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.8399999737739563</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3060</v>
+      </c>
+      <c r="C213" t="n">
+        <v>38721</v>
+      </c>
+      <c r="D213" t="n">
+        <v>135799</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F213" t="n">
+        <v>415544940</v>
+      </c>
+      <c r="G213" t="n">
+        <v>49916852820</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.8299999833106995</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3065</v>
+      </c>
+      <c r="C214" t="n">
+        <v>21696</v>
+      </c>
+      <c r="D214" t="n">
+        <v>133712</v>
+      </c>
+      <c r="E214" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F214" t="n">
+        <v>409827280</v>
+      </c>
+      <c r="G214" t="n">
+        <v>49998416305</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.8199999928474426</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C215" t="n">
+        <v>26792</v>
+      </c>
+      <c r="D215" t="n">
+        <v>129094</v>
+      </c>
+      <c r="E215" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F215" t="n">
+        <v>400191400</v>
+      </c>
+      <c r="G215" t="n">
+        <v>50569360700</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.7900000214576721</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3105</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22249</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3115</v>
+      </c>
+      <c r="C217" t="n">
+        <v>21137</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22439,7 +23063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27907,11 +28531,21 @@
       <c r="C210" t="n">
         <v>17035</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F210" t="n">
+        <v>134891158</v>
+      </c>
+      <c r="G210" t="n">
+        <v>31416509607</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -27921,13 +28555,159 @@
         <v>1950</v>
       </c>
       <c r="C211" t="n">
-        <v>29305</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>29546</v>
+      </c>
+      <c r="D211" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F211" t="n">
+        <v>138368100</v>
+      </c>
+      <c r="G211" t="n">
+        <v>32226298650</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C212" t="n">
+        <v>33650</v>
+      </c>
+      <c r="D212" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F212" t="n">
+        <v>134323494</v>
+      </c>
+      <c r="G212" t="n">
+        <v>31284299151</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C213" t="n">
+        <v>23522</v>
+      </c>
+      <c r="D213" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F213" t="n">
+        <v>137942352</v>
+      </c>
+      <c r="G213" t="n">
+        <v>32127140808</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D214" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E214" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F214" t="n">
+        <v>136239360</v>
+      </c>
+      <c r="G214" t="n">
+        <v>31730509440</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C215" t="n">
+        <v>12164</v>
+      </c>
+      <c r="D215" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E215" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F215" t="n">
+        <v>139574386</v>
+      </c>
+      <c r="G215" t="n">
+        <v>32507245869</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.4300000071525574</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C216" t="n">
+        <v>30721</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C217" t="n">
+        <v>32905</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -27940,7 +28720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33408,11 +34188,21 @@
       <c r="C210" t="n">
         <v>213428</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E210" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F210" t="n">
+        <v>154541784</v>
+      </c>
+      <c r="G210" t="n">
+        <v>41802664680</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -33422,13 +34212,159 @@
         <v>554</v>
       </c>
       <c r="C211" t="n">
-        <v>144177</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>144192</v>
+      </c>
+      <c r="D211" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E211" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F211" t="n">
+        <v>155101718</v>
+      </c>
+      <c r="G211" t="n">
+        <v>41954123610</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>555</v>
+      </c>
+      <c r="C212" t="n">
+        <v>198163</v>
+      </c>
+      <c r="D212" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E212" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F212" t="n">
+        <v>155381685</v>
+      </c>
+      <c r="G212" t="n">
+        <v>42029853075</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>557</v>
+      </c>
+      <c r="C213" t="n">
+        <v>162259</v>
+      </c>
+      <c r="D213" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E213" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F213" t="n">
+        <v>155941619</v>
+      </c>
+      <c r="G213" t="n">
+        <v>42181312005</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>556</v>
+      </c>
+      <c r="C214" t="n">
+        <v>113438</v>
+      </c>
+      <c r="D214" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E214" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F214" t="n">
+        <v>155661652</v>
+      </c>
+      <c r="G214" t="n">
+        <v>42105582540</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>558</v>
+      </c>
+      <c r="C215" t="n">
+        <v>234830</v>
+      </c>
+      <c r="D215" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E215" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F215" t="n">
+        <v>156221586</v>
+      </c>
+      <c r="G215" t="n">
+        <v>42257041470</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>564</v>
+      </c>
+      <c r="C216" t="n">
+        <v>282751</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>564</v>
+      </c>
+      <c r="C217" t="n">
+        <v>293181</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33441,7 +34377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38909,11 +39845,21 @@
       <c r="C210" t="n">
         <v>500253</v>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="D210" t="n">
+        <v>378970</v>
+      </c>
+      <c r="E210" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F210" t="n">
+        <v>386549400</v>
+      </c>
+      <c r="G210" t="n">
+        <v>110562439980</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.3499999940395355</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -38923,13 +39869,159 @@
         <v>1059</v>
       </c>
       <c r="C211" t="n">
-        <v>591665</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+        <v>595986</v>
+      </c>
+      <c r="D211" t="n">
+        <v>384022</v>
+      </c>
+      <c r="E211" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F211" t="n">
+        <v>406679298</v>
+      </c>
+      <c r="G211" t="n">
+        <v>114789827391</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C212" t="n">
+        <v>390537</v>
+      </c>
+      <c r="D212" t="n">
+        <v>380715</v>
+      </c>
+      <c r="E212" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F212" t="n">
+        <v>392897880</v>
+      </c>
+      <c r="G212" t="n">
+        <v>111863174568</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C213" t="n">
+        <v>283130</v>
+      </c>
+      <c r="D213" t="n">
+        <v>361343</v>
+      </c>
+      <c r="E213" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F213" t="n">
+        <v>380855522</v>
+      </c>
+      <c r="G213" t="n">
+        <v>114247854646</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C214" t="n">
+        <v>246190</v>
+      </c>
+      <c r="D214" t="n">
+        <v>374765</v>
+      </c>
+      <c r="E214" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F214" t="n">
+        <v>389755600</v>
+      </c>
+      <c r="G214" t="n">
+        <v>112730330960</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C215" t="n">
+        <v>304763</v>
+      </c>
+      <c r="D215" t="n">
+        <v>354294</v>
+      </c>
+      <c r="E215" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F215" t="n">
+        <v>379094580</v>
+      </c>
+      <c r="G215" t="n">
+        <v>115982167430</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.3300000131130219</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C216" t="n">
+        <v>426091</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1067</v>
+      </c>
+      <c r="C217" t="n">
+        <v>796523</v>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6059,11 +6059,21 @@
       <c r="C216" t="n">
         <v>96324</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>88790000000</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -6080,6 +6090,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6830</v>
+      </c>
+      <c r="C218" t="n">
+        <v>48007</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6092,7 +6118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11716,11 +11742,21 @@
       <c r="C216" t="n">
         <v>124381</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E216" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F216" t="n">
+        <v>135731814</v>
+      </c>
+      <c r="G216" t="n">
+        <v>27915660384</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11730,13 +11766,29 @@
         <v>321</v>
       </c>
       <c r="C217" t="n">
-        <v>199135</v>
+        <v>199144</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>315</v>
+      </c>
+      <c r="C218" t="n">
+        <v>233343</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11749,7 +11801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17373,11 +17425,21 @@
       <c r="C216" t="n">
         <v>97393</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>133568</v>
+      </c>
+      <c r="E216" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F216" t="n">
+        <v>255916288</v>
+      </c>
+      <c r="G216" t="n">
+        <v>31395750356</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.8199999928474426</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -17387,13 +17449,29 @@
         <v>1900</v>
       </c>
       <c r="C217" t="n">
-        <v>100549</v>
+        <v>100650</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C218" t="n">
+        <v>106036</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17406,7 +17484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23030,11 +23108,21 @@
       <c r="C216" t="n">
         <v>22249</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>126949</v>
+      </c>
+      <c r="E216" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F216" t="n">
+        <v>394176645</v>
+      </c>
+      <c r="G216" t="n">
+        <v>50650924185</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.7799999713897705</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -23044,13 +23132,29 @@
         <v>3115</v>
       </c>
       <c r="C217" t="n">
-        <v>21137</v>
+        <v>21162</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C218" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23063,7 +23167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28687,11 +28791,21 @@
       <c r="C216" t="n">
         <v>30721</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E216" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F216" t="n">
+        <v>140071092</v>
+      </c>
+      <c r="G216" t="n">
+        <v>32622930018</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -28708,6 +28822,22 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C218" t="n">
+        <v>16339</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28720,7 +28850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34344,11 +34474,21 @@
       <c r="C216" t="n">
         <v>282751</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E216" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F216" t="n">
+        <v>157901388</v>
+      </c>
+      <c r="G216" t="n">
+        <v>42711418260</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -34358,13 +34498,29 @@
         <v>564</v>
       </c>
       <c r="C217" t="n">
-        <v>293181</v>
+        <v>293268</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>569</v>
+      </c>
+      <c r="C218" t="n">
+        <v>253314</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34377,7 +34533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40001,11 +40157,21 @@
       <c r="C216" t="n">
         <v>426091</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>202816</v>
+      </c>
+      <c r="E216" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F216" t="n">
+        <v>218635648</v>
+      </c>
+      <c r="G216" t="n">
+        <v>116849323822</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -40015,7 +40181,7 @@
         <v>1067</v>
       </c>
       <c r="C217" t="n">
-        <v>796523</v>
+        <v>801468</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -40023,6 +40189,22 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C218" t="n">
+        <v>299538</v>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6137,11 +6137,21 @@
       <c r="C219" t="n">
         <v>48017</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>88790000000</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -6151,13 +6161,29 @@
         <v>6740</v>
       </c>
       <c r="C220" t="n">
-        <v>80918</v>
+        <v>81119</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6700</v>
+      </c>
+      <c r="C221" t="n">
+        <v>59518</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6170,7 +6196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11872,11 +11898,21 @@
       <c r="C219" t="n">
         <v>233503</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E219" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F219" t="n">
+        <v>130750830</v>
+      </c>
+      <c r="G219" t="n">
+        <v>26891232480</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11886,13 +11922,29 @@
         <v>308</v>
       </c>
       <c r="C220" t="n">
-        <v>442529</v>
+        <v>442680</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>310</v>
+      </c>
+      <c r="C221" t="n">
+        <v>186107</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11905,7 +11957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17607,11 +17659,21 @@
       <c r="C219" t="n">
         <v>106149</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>130561</v>
+      </c>
+      <c r="E219" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F219" t="n">
+        <v>249371510</v>
+      </c>
+      <c r="G219" t="n">
+        <v>31297433810</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.800000011920929</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -17621,13 +17683,29 @@
         <v>1877</v>
       </c>
       <c r="C220" t="n">
-        <v>54845</v>
+        <v>54886</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C221" t="n">
+        <v>71289</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17640,7 +17718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23342,11 +23420,21 @@
       <c r="C219" t="n">
         <v>25011</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>123041</v>
+      </c>
+      <c r="E219" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F219" t="n">
+        <v>381427100</v>
+      </c>
+      <c r="G219" t="n">
+        <v>50569360700</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -23356,13 +23444,29 @@
         <v>2995</v>
       </c>
       <c r="C220" t="n">
-        <v>45418</v>
+        <v>45462</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18523</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23375,7 +23479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29077,11 +29181,21 @@
       <c r="C219" t="n">
         <v>16359</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>70958</v>
+      </c>
+      <c r="E219" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F219" t="n">
+        <v>140496840</v>
+      </c>
+      <c r="G219" t="n">
+        <v>32722087860</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -29091,13 +29205,29 @@
         <v>1933</v>
       </c>
       <c r="C220" t="n">
-        <v>25782</v>
+        <v>25783</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1877</v>
+      </c>
+      <c r="C221" t="n">
+        <v>49305</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29110,7 +29240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34812,11 +34942,21 @@
       <c r="C219" t="n">
         <v>254575</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E219" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F219" t="n">
+        <v>159301223</v>
+      </c>
+      <c r="G219" t="n">
+        <v>43090065585</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -34826,13 +34966,29 @@
         <v>572</v>
       </c>
       <c r="C220" t="n">
-        <v>445765</v>
+        <v>445967</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>571</v>
+      </c>
+      <c r="C221" t="n">
+        <v>224741</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34845,7 +35001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40547,11 +40703,21 @@
       <c r="C219" t="n">
         <v>301130</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>112188358215</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -40561,7 +40727,7 @@
         <v>1018</v>
       </c>
       <c r="C220" t="n">
-        <v>342154</v>
+        <v>342328</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -40569,6 +40735,22 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C221" t="n">
+        <v>172597</v>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6319,11 +6319,21 @@
       <c r="C226" t="n">
         <v>45307</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>87620000000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6340,6 +6350,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C228" t="n">
+        <v>54664</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6352,7 +6378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12236,11 +12262,21 @@
       <c r="C226" t="n">
         <v>994437</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>415080</v>
+      </c>
+      <c r="E226" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F226" t="n">
+        <v>133655760</v>
+      </c>
+      <c r="G226" t="n">
+        <v>27488815424</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12250,13 +12286,29 @@
         <v>311</v>
       </c>
       <c r="C227" t="n">
-        <v>3579441</v>
+        <v>3585315</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>309</v>
+      </c>
+      <c r="C228" t="n">
+        <v>347742</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12269,7 +12321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18153,11 +18205,21 @@
       <c r="C226" t="n">
         <v>58781</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>122649</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F226" t="n">
+        <v>225674160</v>
+      </c>
+      <c r="G226" t="n">
+        <v>30150407440</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18167,13 +18229,29 @@
         <v>1837</v>
       </c>
       <c r="C227" t="n">
-        <v>57331</v>
+        <v>57338</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1833</v>
+      </c>
+      <c r="C228" t="n">
+        <v>58682</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18186,7 +18264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24070,11 +24148,21 @@
       <c r="C226" t="n">
         <v>20860</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>115584</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F226" t="n">
+        <v>349063680</v>
+      </c>
+      <c r="G226" t="n">
+        <v>49264344940</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.7099999785423279</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24084,13 +24172,29 @@
         <v>3020</v>
       </c>
       <c r="C227" t="n">
-        <v>7147</v>
+        <v>7270</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3030</v>
+      </c>
+      <c r="C228" t="n">
+        <v>11394</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24103,7 +24207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29987,11 +30091,21 @@
       <c r="C226" t="n">
         <v>7101</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>71190</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F226" t="n">
+        <v>133623630</v>
+      </c>
+      <c r="G226" t="n">
+        <v>31019878239</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -30008,6 +30122,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1851</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4928</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30020,7 +30150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35904,11 +36034,21 @@
       <c r="C226" t="n">
         <v>67736</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>282311</v>
+      </c>
+      <c r="E226" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F226" t="n">
+        <v>160070337</v>
+      </c>
+      <c r="G226" t="n">
+        <v>42938606655</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -35918,13 +36058,29 @@
         <v>563</v>
       </c>
       <c r="C227" t="n">
-        <v>177946</v>
+        <v>277613</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>564</v>
+      </c>
+      <c r="C228" t="n">
+        <v>231482</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35937,7 +36093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41821,11 +41977,21 @@
       <c r="C226" t="n">
         <v>187831</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>109695283588</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -41835,7 +42001,7 @@
         <v>1037</v>
       </c>
       <c r="C227" t="n">
-        <v>158158</v>
+        <v>159051</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -41843,6 +42009,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C228" t="n">
+        <v>160649</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_4.xlsx
+++ b/b_list_4.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,11 +6345,21 @@
       <c r="C227" t="n">
         <v>39818</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>89180000000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6366,6 +6376,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6780</v>
+      </c>
+      <c r="C229" t="n">
+        <v>52412</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6378,7 +6404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12288,11 +12314,21 @@
       <c r="C227" t="n">
         <v>3585315</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>415080</v>
+      </c>
+      <c r="E227" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F227" t="n">
+        <v>129089880</v>
+      </c>
+      <c r="G227" t="n">
+        <v>26549756512</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12302,13 +12338,29 @@
         <v>309</v>
       </c>
       <c r="C228" t="n">
-        <v>347742</v>
+        <v>348743</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>309</v>
+      </c>
+      <c r="C229" t="n">
+        <v>277237</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12321,7 +12373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18231,11 +18283,21 @@
       <c r="C227" t="n">
         <v>57338</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>121996</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F227" t="n">
+        <v>224106652</v>
+      </c>
+      <c r="G227" t="n">
+        <v>30101249167</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.7400000095367432</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18245,13 +18307,29 @@
         <v>1833</v>
       </c>
       <c r="C228" t="n">
-        <v>58682</v>
+        <v>58716</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C229" t="n">
+        <v>42816</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18264,7 +18342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24174,11 +24252,21 @@
       <c r="C227" t="n">
         <v>7270</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>114986</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F227" t="n">
+        <v>347257720</v>
+      </c>
+      <c r="G227" t="n">
+        <v>49264344940</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.699999988079071</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24195,6 +24283,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3030</v>
+      </c>
+      <c r="C229" t="n">
+        <v>10874</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24207,7 +24311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30117,11 +30221,21 @@
       <c r="C227" t="n">
         <v>72539</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>71190</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F227" t="n">
+        <v>131203170</v>
+      </c>
+      <c r="G227" t="n">
+        <v>30457983801</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.4300000071525574</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -30131,13 +30245,29 @@
         <v>1851</v>
       </c>
       <c r="C228" t="n">
-        <v>4928</v>
+        <v>4929</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1868</v>
+      </c>
+      <c r="C229" t="n">
+        <v>19897</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30150,7 +30280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36060,11 +36190,21 @@
       <c r="C227" t="n">
         <v>277613</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>282311</v>
+      </c>
+      <c r="E227" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F227" t="n">
+        <v>158941093</v>
+      </c>
+      <c r="G227" t="n">
+        <v>42635688795</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -36074,13 +36214,29 @@
         <v>564</v>
       </c>
       <c r="C228" t="n">
-        <v>231482</v>
+        <v>231882</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>568</v>
+      </c>
+      <c r="C229" t="n">
+        <v>136381</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36093,7 +36249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42003,11 +42159,21 @@
       <c r="C227" t="n">
         <v>159051</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>108394549</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>112405147313</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -42017,7 +42183,7 @@
         <v>1033</v>
       </c>
       <c r="C228" t="n">
-        <v>160649</v>
+        <v>162302</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -42025,6 +42191,22 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C229" t="n">
+        <v>249028</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
